--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_106.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_106.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32107-d1164658-Reviews-Chase_Suite_Hotel_Brea-Brea_California.html</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>294</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Chase-Suite-Hotel-Brea.h28127.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_106.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_106.xlsx
@@ -4854,7 +4854,7 @@
         <v>7306</v>
       </c>
       <c r="B2" t="n">
-        <v>130579</v>
+        <v>161311</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -4984,7 +4984,7 @@
         <v>7306</v>
       </c>
       <c r="B4" t="n">
-        <v>130580</v>
+        <v>161312</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -5120,7 +5120,7 @@
         <v>7306</v>
       </c>
       <c r="B6" t="n">
-        <v>130581</v>
+        <v>161313</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -5258,7 +5258,7 @@
         <v>7306</v>
       </c>
       <c r="B8" t="n">
-        <v>130582</v>
+        <v>161314</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -5396,7 +5396,7 @@
         <v>7306</v>
       </c>
       <c r="B10" t="n">
-        <v>130583</v>
+        <v>161315</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -5461,7 +5461,7 @@
         <v>7306</v>
       </c>
       <c r="B11" t="n">
-        <v>130584</v>
+        <v>161316</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
@@ -5591,7 +5591,7 @@
         <v>7306</v>
       </c>
       <c r="B13" t="n">
-        <v>130585</v>
+        <v>161317</v>
       </c>
       <c r="C13" t="s">
         <v>142</v>
@@ -5660,7 +5660,7 @@
         <v>7306</v>
       </c>
       <c r="B14" t="n">
-        <v>130586</v>
+        <v>161318</v>
       </c>
       <c r="C14" t="s">
         <v>150</v>
@@ -5790,7 +5790,7 @@
         <v>7306</v>
       </c>
       <c r="B16" t="n">
-        <v>130587</v>
+        <v>161319</v>
       </c>
       <c r="C16" t="s">
         <v>169</v>
@@ -5861,7 +5861,7 @@
         <v>7306</v>
       </c>
       <c r="B17" t="n">
-        <v>130588</v>
+        <v>161320</v>
       </c>
       <c r="C17" t="s">
         <v>175</v>
@@ -5926,7 +5926,7 @@
         <v>7306</v>
       </c>
       <c r="B18" t="n">
-        <v>130589</v>
+        <v>161321</v>
       </c>
       <c r="C18" t="s">
         <v>185</v>
@@ -6064,7 +6064,7 @@
         <v>7306</v>
       </c>
       <c r="B20" t="n">
-        <v>130590</v>
+        <v>161322</v>
       </c>
       <c r="C20" t="s">
         <v>200</v>
@@ -6129,7 +6129,7 @@
         <v>7306</v>
       </c>
       <c r="B21" t="n">
-        <v>130591</v>
+        <v>161323</v>
       </c>
       <c r="C21" t="s">
         <v>210</v>
@@ -6194,7 +6194,7 @@
         <v>7306</v>
       </c>
       <c r="B22" t="n">
-        <v>130592</v>
+        <v>161324</v>
       </c>
       <c r="C22" t="s">
         <v>219</v>
@@ -6320,7 +6320,7 @@
         <v>7306</v>
       </c>
       <c r="B24" t="n">
-        <v>130593</v>
+        <v>161325</v>
       </c>
       <c r="C24" t="s">
         <v>236</v>
@@ -6456,7 +6456,7 @@
         <v>7306</v>
       </c>
       <c r="B26" t="n">
-        <v>130594</v>
+        <v>161326</v>
       </c>
       <c r="C26" t="s">
         <v>253</v>
@@ -6527,7 +6527,7 @@
         <v>7306</v>
       </c>
       <c r="B27" t="n">
-        <v>130595</v>
+        <v>161327</v>
       </c>
       <c r="C27" t="s">
         <v>263</v>
@@ -6592,7 +6592,7 @@
         <v>7306</v>
       </c>
       <c r="B28" t="n">
-        <v>130596</v>
+        <v>161328</v>
       </c>
       <c r="C28" t="s">
         <v>269</v>
@@ -6661,7 +6661,7 @@
         <v>7306</v>
       </c>
       <c r="B29" t="n">
-        <v>130597</v>
+        <v>161329</v>
       </c>
       <c r="C29" t="s">
         <v>278</v>
@@ -6803,7 +6803,7 @@
         <v>7306</v>
       </c>
       <c r="B31" t="n">
-        <v>130598</v>
+        <v>161330</v>
       </c>
       <c r="C31" t="s">
         <v>297</v>
@@ -6872,7 +6872,7 @@
         <v>7306</v>
       </c>
       <c r="B32" t="n">
-        <v>130599</v>
+        <v>130593</v>
       </c>
       <c r="C32" t="s">
         <v>304</v>
@@ -7146,7 +7146,7 @@
         <v>7306</v>
       </c>
       <c r="B36" t="n">
-        <v>130600</v>
+        <v>161331</v>
       </c>
       <c r="C36" t="s">
         <v>335</v>
@@ -7217,7 +7217,7 @@
         <v>7306</v>
       </c>
       <c r="B37" t="n">
-        <v>130601</v>
+        <v>161332</v>
       </c>
       <c r="C37" t="s">
         <v>344</v>
@@ -7282,7 +7282,7 @@
         <v>7306</v>
       </c>
       <c r="B38" t="n">
-        <v>130602</v>
+        <v>161333</v>
       </c>
       <c r="C38" t="s">
         <v>354</v>
@@ -7343,7 +7343,7 @@
         <v>7306</v>
       </c>
       <c r="B39" t="n">
-        <v>130603</v>
+        <v>161334</v>
       </c>
       <c r="C39" t="s">
         <v>363</v>
@@ -7485,7 +7485,7 @@
         <v>7306</v>
       </c>
       <c r="B41" t="n">
-        <v>130604</v>
+        <v>161335</v>
       </c>
       <c r="C41" t="s">
         <v>381</v>
@@ -7550,7 +7550,7 @@
         <v>7306</v>
       </c>
       <c r="B42" t="n">
-        <v>130605</v>
+        <v>161336</v>
       </c>
       <c r="C42" t="s">
         <v>390</v>
@@ -7692,7 +7692,7 @@
         <v>7306</v>
       </c>
       <c r="B44" t="n">
-        <v>130598</v>
+        <v>130593</v>
       </c>
       <c r="C44" t="s">
         <v>304</v>
@@ -7757,7 +7757,7 @@
         <v>7306</v>
       </c>
       <c r="B45" t="n">
-        <v>130606</v>
+        <v>161337</v>
       </c>
       <c r="C45" t="s">
         <v>414</v>
@@ -7826,7 +7826,7 @@
         <v>7306</v>
       </c>
       <c r="B46" t="n">
-        <v>130607</v>
+        <v>161338</v>
       </c>
       <c r="C46" t="s">
         <v>421</v>
@@ -7966,7 +7966,7 @@
         <v>7306</v>
       </c>
       <c r="B48" t="n">
-        <v>130608</v>
+        <v>130615</v>
       </c>
       <c r="C48" t="s">
         <v>437</v>
@@ -8100,7 +8100,7 @@
         <v>7306</v>
       </c>
       <c r="B50" t="n">
-        <v>130609</v>
+        <v>130601</v>
       </c>
       <c r="C50" t="s">
         <v>451</v>
@@ -8165,7 +8165,7 @@
         <v>7306</v>
       </c>
       <c r="B51" t="n">
-        <v>130610</v>
+        <v>130614</v>
       </c>
       <c r="C51" t="s">
         <v>459</v>
@@ -8234,7 +8234,7 @@
         <v>7306</v>
       </c>
       <c r="B52" t="n">
-        <v>130611</v>
+        <v>161339</v>
       </c>
       <c r="C52" t="s">
         <v>467</v>
@@ -8445,7 +8445,7 @@
         <v>7306</v>
       </c>
       <c r="B55" t="n">
-        <v>130612</v>
+        <v>161340</v>
       </c>
       <c r="C55" t="s">
         <v>488</v>
@@ -8585,7 +8585,7 @@
         <v>7306</v>
       </c>
       <c r="B57" t="n">
-        <v>130613</v>
+        <v>161341</v>
       </c>
       <c r="C57" t="s">
         <v>502</v>
@@ -8656,7 +8656,7 @@
         <v>7306</v>
       </c>
       <c r="B58" t="n">
-        <v>130614</v>
+        <v>161342</v>
       </c>
       <c r="C58" t="s">
         <v>509</v>
@@ -8790,7 +8790,7 @@
         <v>7306</v>
       </c>
       <c r="B60" t="n">
-        <v>130615</v>
+        <v>161343</v>
       </c>
       <c r="C60" t="s">
         <v>526</v>
@@ -8857,7 +8857,7 @@
         <v>7306</v>
       </c>
       <c r="B61" t="n">
-        <v>130616</v>
+        <v>161344</v>
       </c>
       <c r="C61" t="s">
         <v>532</v>
@@ -8922,7 +8922,7 @@
         <v>7306</v>
       </c>
       <c r="B62" t="n">
-        <v>130617</v>
+        <v>161345</v>
       </c>
       <c r="C62" t="s">
         <v>538</v>
@@ -8983,7 +8983,7 @@
         <v>7306</v>
       </c>
       <c r="B63" t="n">
-        <v>130618</v>
+        <v>161346</v>
       </c>
       <c r="C63" t="s">
         <v>545</v>
@@ -9054,7 +9054,7 @@
         <v>7306</v>
       </c>
       <c r="B64" t="n">
-        <v>130619</v>
+        <v>161347</v>
       </c>
       <c r="C64" t="s">
         <v>555</v>
@@ -9125,7 +9125,7 @@
         <v>7306</v>
       </c>
       <c r="B65" t="n">
-        <v>130620</v>
+        <v>161348</v>
       </c>
       <c r="C65" t="s">
         <v>562</v>
@@ -9192,7 +9192,7 @@
         <v>7306</v>
       </c>
       <c r="B66" t="n">
-        <v>130621</v>
+        <v>161349</v>
       </c>
       <c r="C66" t="s">
         <v>569</v>
@@ -9322,7 +9322,7 @@
         <v>7306</v>
       </c>
       <c r="B68" t="n">
-        <v>130622</v>
+        <v>161350</v>
       </c>
       <c r="C68" t="s">
         <v>587</v>
@@ -9393,7 +9393,7 @@
         <v>7306</v>
       </c>
       <c r="B69" t="n">
-        <v>130623</v>
+        <v>161351</v>
       </c>
       <c r="C69" t="s">
         <v>597</v>
@@ -9458,7 +9458,7 @@
         <v>7306</v>
       </c>
       <c r="B70" t="n">
-        <v>130608</v>
+        <v>130601</v>
       </c>
       <c r="C70" t="s">
         <v>451</v>
@@ -9529,7 +9529,7 @@
         <v>7306</v>
       </c>
       <c r="B71" t="n">
-        <v>130624</v>
+        <v>161352</v>
       </c>
       <c r="C71" t="s">
         <v>612</v>
@@ -9659,7 +9659,7 @@
         <v>7306</v>
       </c>
       <c r="B73" t="n">
-        <v>130625</v>
+        <v>161353</v>
       </c>
       <c r="C73" t="s">
         <v>625</v>
@@ -9728,7 +9728,7 @@
         <v>7306</v>
       </c>
       <c r="B74" t="n">
-        <v>130626</v>
+        <v>161354</v>
       </c>
       <c r="C74" t="s">
         <v>635</v>
@@ -9795,7 +9795,7 @@
         <v>7306</v>
       </c>
       <c r="B75" t="n">
-        <v>130627</v>
+        <v>161355</v>
       </c>
       <c r="C75" t="s">
         <v>641</v>
@@ -9856,7 +9856,7 @@
         <v>7306</v>
       </c>
       <c r="B76" t="n">
-        <v>130628</v>
+        <v>161356</v>
       </c>
       <c r="C76" t="s">
         <v>648</v>
@@ -10059,7 +10059,7 @@
         <v>7306</v>
       </c>
       <c r="B79" t="n">
-        <v>130629</v>
+        <v>161357</v>
       </c>
       <c r="C79" t="s">
         <v>673</v>
@@ -10124,7 +10124,7 @@
         <v>7306</v>
       </c>
       <c r="B80" t="n">
-        <v>130630</v>
+        <v>161358</v>
       </c>
       <c r="C80" t="s">
         <v>679</v>
@@ -10191,7 +10191,7 @@
         <v>7306</v>
       </c>
       <c r="B81" t="n">
-        <v>130631</v>
+        <v>161359</v>
       </c>
       <c r="C81" t="s">
         <v>689</v>
@@ -10262,7 +10262,7 @@
         <v>7306</v>
       </c>
       <c r="B82" t="n">
-        <v>130632</v>
+        <v>161360</v>
       </c>
       <c r="C82" t="s">
         <v>695</v>
@@ -10331,7 +10331,7 @@
         <v>7306</v>
       </c>
       <c r="B83" t="n">
-        <v>130633</v>
+        <v>161361</v>
       </c>
       <c r="C83" t="s">
         <v>702</v>
@@ -10400,7 +10400,7 @@
         <v>7306</v>
       </c>
       <c r="B84" t="n">
-        <v>130634</v>
+        <v>161362</v>
       </c>
       <c r="C84" t="s">
         <v>712</v>
@@ -10540,7 +10540,7 @@
         <v>7306</v>
       </c>
       <c r="B86" t="n">
-        <v>130635</v>
+        <v>161363</v>
       </c>
       <c r="C86" t="s">
         <v>728</v>
@@ -10682,7 +10682,7 @@
         <v>7306</v>
       </c>
       <c r="B88" t="n">
-        <v>130636</v>
+        <v>161364</v>
       </c>
       <c r="C88" t="s">
         <v>742</v>
@@ -10753,7 +10753,7 @@
         <v>7306</v>
       </c>
       <c r="B89" t="n">
-        <v>130637</v>
+        <v>161365</v>
       </c>
       <c r="C89" t="s">
         <v>748</v>
@@ -10824,7 +10824,7 @@
         <v>7306</v>
       </c>
       <c r="B90" t="n">
-        <v>130638</v>
+        <v>161366</v>
       </c>
       <c r="C90" t="s">
         <v>757</v>
@@ -10974,7 +10974,7 @@
         <v>7306</v>
       </c>
       <c r="B92" t="n">
-        <v>130639</v>
+        <v>161367</v>
       </c>
       <c r="C92" t="s">
         <v>773</v>
@@ -11120,7 +11120,7 @@
         <v>7306</v>
       </c>
       <c r="B94" t="n">
-        <v>130640</v>
+        <v>161368</v>
       </c>
       <c r="C94" t="s">
         <v>790</v>
@@ -11420,7 +11420,7 @@
         <v>7306</v>
       </c>
       <c r="B98" t="n">
-        <v>130641</v>
+        <v>161369</v>
       </c>
       <c r="C98" t="s">
         <v>821</v>
@@ -11495,7 +11495,7 @@
         <v>7306</v>
       </c>
       <c r="B99" t="n">
-        <v>130642</v>
+        <v>161370</v>
       </c>
       <c r="C99" t="s">
         <v>828</v>
@@ -11570,7 +11570,7 @@
         <v>7306</v>
       </c>
       <c r="B100" t="n">
-        <v>130643</v>
+        <v>161371</v>
       </c>
       <c r="C100" t="s">
         <v>834</v>
@@ -11781,7 +11781,7 @@
         <v>7306</v>
       </c>
       <c r="B103" t="n">
-        <v>130609</v>
+        <v>130614</v>
       </c>
       <c r="C103" t="s">
         <v>459</v>
@@ -11856,7 +11856,7 @@
         <v>7306</v>
       </c>
       <c r="B104" t="n">
-        <v>130644</v>
+        <v>161372</v>
       </c>
       <c r="C104" t="s">
         <v>865</v>
@@ -11931,7 +11931,7 @@
         <v>7306</v>
       </c>
       <c r="B105" t="n">
-        <v>130645</v>
+        <v>161373</v>
       </c>
       <c r="C105" t="s">
         <v>874</v>
@@ -12006,7 +12006,7 @@
         <v>7306</v>
       </c>
       <c r="B106" t="n">
-        <v>130646</v>
+        <v>161374</v>
       </c>
       <c r="C106" t="s">
         <v>882</v>
@@ -12081,7 +12081,7 @@
         <v>7306</v>
       </c>
       <c r="B107" t="n">
-        <v>130647</v>
+        <v>161375</v>
       </c>
       <c r="C107" t="s">
         <v>890</v>
@@ -12156,7 +12156,7 @@
         <v>7306</v>
       </c>
       <c r="B108" t="n">
-        <v>130648</v>
+        <v>161376</v>
       </c>
       <c r="C108" t="s">
         <v>899</v>
@@ -12231,7 +12231,7 @@
         <v>7306</v>
       </c>
       <c r="B109" t="n">
-        <v>130649</v>
+        <v>161377</v>
       </c>
       <c r="C109" t="s">
         <v>906</v>
@@ -12306,7 +12306,7 @@
         <v>7306</v>
       </c>
       <c r="B110" t="n">
-        <v>130607</v>
+        <v>130615</v>
       </c>
       <c r="C110" t="s">
         <v>437</v>
@@ -12381,7 +12381,7 @@
         <v>7306</v>
       </c>
       <c r="B111" t="n">
-        <v>130650</v>
+        <v>161378</v>
       </c>
       <c r="C111" t="s">
         <v>922</v>
@@ -12456,7 +12456,7 @@
         <v>7306</v>
       </c>
       <c r="B112" t="n">
-        <v>130651</v>
+        <v>161379</v>
       </c>
       <c r="C112" t="s">
         <v>931</v>
@@ -12531,7 +12531,7 @@
         <v>7306</v>
       </c>
       <c r="B113" t="n">
-        <v>130652</v>
+        <v>161380</v>
       </c>
       <c r="C113" t="s">
         <v>938</v>
@@ -12606,7 +12606,7 @@
         <v>7306</v>
       </c>
       <c r="B114" t="n">
-        <v>130653</v>
+        <v>161381</v>
       </c>
       <c r="C114" t="s">
         <v>948</v>
@@ -12681,7 +12681,7 @@
         <v>7306</v>
       </c>
       <c r="B115" t="n">
-        <v>130654</v>
+        <v>161382</v>
       </c>
       <c r="C115" t="s">
         <v>956</v>
@@ -12756,7 +12756,7 @@
         <v>7306</v>
       </c>
       <c r="B116" t="n">
-        <v>130655</v>
+        <v>161383</v>
       </c>
       <c r="C116" t="s">
         <v>963</v>
@@ -12821,7 +12821,7 @@
         <v>7306</v>
       </c>
       <c r="B117" t="n">
-        <v>130656</v>
+        <v>161384</v>
       </c>
       <c r="C117" t="s">
         <v>972</v>
@@ -12971,7 +12971,7 @@
         <v>7306</v>
       </c>
       <c r="B119" t="n">
-        <v>130657</v>
+        <v>161385</v>
       </c>
       <c r="C119" t="s">
         <v>990</v>
@@ -13046,7 +13046,7 @@
         <v>7306</v>
       </c>
       <c r="B120" t="n">
-        <v>130658</v>
+        <v>161386</v>
       </c>
       <c r="C120" t="s">
         <v>997</v>
@@ -13117,7 +13117,7 @@
         <v>7306</v>
       </c>
       <c r="B121" t="n">
-        <v>130659</v>
+        <v>161387</v>
       </c>
       <c r="C121" t="s">
         <v>1004</v>
@@ -13188,7 +13188,7 @@
         <v>7306</v>
       </c>
       <c r="B122" t="n">
-        <v>130660</v>
+        <v>161388</v>
       </c>
       <c r="C122" t="s">
         <v>1013</v>
@@ -13263,7 +13263,7 @@
         <v>7306</v>
       </c>
       <c r="B123" t="n">
-        <v>130661</v>
+        <v>161389</v>
       </c>
       <c r="C123" t="s">
         <v>1023</v>
@@ -13334,7 +13334,7 @@
         <v>7306</v>
       </c>
       <c r="B124" t="n">
-        <v>130662</v>
+        <v>161390</v>
       </c>
       <c r="C124" t="s">
         <v>1030</v>
@@ -13484,7 +13484,7 @@
         <v>7306</v>
       </c>
       <c r="B126" t="n">
-        <v>130663</v>
+        <v>161391</v>
       </c>
       <c r="C126" t="s">
         <v>1047</v>
@@ -13559,7 +13559,7 @@
         <v>7306</v>
       </c>
       <c r="B127" t="n">
-        <v>130664</v>
+        <v>161392</v>
       </c>
       <c r="C127" t="s">
         <v>1054</v>
@@ -13709,7 +13709,7 @@
         <v>7306</v>
       </c>
       <c r="B129" t="n">
-        <v>130665</v>
+        <v>161393</v>
       </c>
       <c r="C129" t="s">
         <v>1071</v>
@@ -13930,7 +13930,7 @@
         <v>7306</v>
       </c>
       <c r="B132" t="n">
-        <v>130666</v>
+        <v>161394</v>
       </c>
       <c r="C132" t="s">
         <v>1092</v>
@@ -14005,7 +14005,7 @@
         <v>7306</v>
       </c>
       <c r="B133" t="n">
-        <v>130667</v>
+        <v>161395</v>
       </c>
       <c r="C133" t="s">
         <v>1100</v>
@@ -14080,7 +14080,7 @@
         <v>7306</v>
       </c>
       <c r="B134" t="n">
-        <v>130668</v>
+        <v>161396</v>
       </c>
       <c r="C134" t="s">
         <v>1105</v>
@@ -14151,7 +14151,7 @@
         <v>7306</v>
       </c>
       <c r="B135" t="n">
-        <v>130669</v>
+        <v>130624</v>
       </c>
       <c r="C135" t="s">
         <v>1112</v>
@@ -14226,7 +14226,7 @@
         <v>7306</v>
       </c>
       <c r="B136" t="n">
-        <v>130670</v>
+        <v>161397</v>
       </c>
       <c r="C136" t="s">
         <v>1122</v>
@@ -14297,7 +14297,7 @@
         <v>7306</v>
       </c>
       <c r="B137" t="n">
-        <v>130671</v>
+        <v>161398</v>
       </c>
       <c r="C137" t="s">
         <v>1129</v>
@@ -14370,7 +14370,7 @@
         <v>7306</v>
       </c>
       <c r="B138" t="n">
-        <v>130672</v>
+        <v>161399</v>
       </c>
       <c r="C138" t="s">
         <v>1137</v>
@@ -14445,7 +14445,7 @@
         <v>7306</v>
       </c>
       <c r="B139" t="n">
-        <v>130673</v>
+        <v>161400</v>
       </c>
       <c r="C139" t="s">
         <v>1146</v>
@@ -14516,7 +14516,7 @@
         <v>7306</v>
       </c>
       <c r="B140" t="n">
-        <v>130674</v>
+        <v>161401</v>
       </c>
       <c r="C140" t="s">
         <v>1153</v>
@@ -14591,7 +14591,7 @@
         <v>7306</v>
       </c>
       <c r="B141" t="n">
-        <v>130675</v>
+        <v>161402</v>
       </c>
       <c r="C141" t="s">
         <v>1163</v>
@@ -14816,7 +14816,7 @@
         <v>7306</v>
       </c>
       <c r="B144" t="n">
-        <v>130676</v>
+        <v>161403</v>
       </c>
       <c r="C144" t="s">
         <v>1191</v>
@@ -14891,7 +14891,7 @@
         <v>7306</v>
       </c>
       <c r="B145" t="n">
-        <v>130677</v>
+        <v>161404</v>
       </c>
       <c r="C145" t="s">
         <v>1201</v>
@@ -14966,7 +14966,7 @@
         <v>7306</v>
       </c>
       <c r="B146" t="n">
-        <v>130678</v>
+        <v>161405</v>
       </c>
       <c r="C146" t="s">
         <v>1211</v>
@@ -15041,7 +15041,7 @@
         <v>7306</v>
       </c>
       <c r="B147" t="n">
-        <v>130679</v>
+        <v>161406</v>
       </c>
       <c r="C147" t="s">
         <v>1220</v>
@@ -15116,7 +15116,7 @@
         <v>7306</v>
       </c>
       <c r="B148" t="n">
-        <v>130680</v>
+        <v>161407</v>
       </c>
       <c r="C148" t="s">
         <v>1230</v>
@@ -15191,7 +15191,7 @@
         <v>7306</v>
       </c>
       <c r="B149" t="n">
-        <v>130681</v>
+        <v>161408</v>
       </c>
       <c r="C149" t="s">
         <v>1240</v>
@@ -15337,7 +15337,7 @@
         <v>7306</v>
       </c>
       <c r="B151" t="n">
-        <v>130682</v>
+        <v>161409</v>
       </c>
       <c r="C151" t="s">
         <v>1256</v>
@@ -15412,7 +15412,7 @@
         <v>7306</v>
       </c>
       <c r="B152" t="n">
-        <v>130683</v>
+        <v>161410</v>
       </c>
       <c r="C152" t="s">
         <v>1263</v>
@@ -15483,7 +15483,7 @@
         <v>7306</v>
       </c>
       <c r="B153" t="n">
-        <v>130684</v>
+        <v>161411</v>
       </c>
       <c r="C153" t="s">
         <v>1273</v>
@@ -15548,7 +15548,7 @@
         <v>7306</v>
       </c>
       <c r="B154" t="n">
-        <v>130685</v>
+        <v>161412</v>
       </c>
       <c r="C154" t="s">
         <v>1281</v>
@@ -15619,7 +15619,7 @@
         <v>7306</v>
       </c>
       <c r="B155" t="n">
-        <v>130686</v>
+        <v>161413</v>
       </c>
       <c r="C155" t="s">
         <v>1288</v>
@@ -15690,7 +15690,7 @@
         <v>7306</v>
       </c>
       <c r="B156" t="n">
-        <v>130687</v>
+        <v>161414</v>
       </c>
       <c r="C156" t="s">
         <v>1297</v>
@@ -15757,7 +15757,7 @@
         <v>7306</v>
       </c>
       <c r="B157" t="n">
-        <v>130688</v>
+        <v>161415</v>
       </c>
       <c r="C157" t="s">
         <v>1304</v>
@@ -15828,7 +15828,7 @@
         <v>7306</v>
       </c>
       <c r="B158" t="n">
-        <v>130689</v>
+        <v>161416</v>
       </c>
       <c r="C158" t="s">
         <v>1314</v>
@@ -15899,7 +15899,7 @@
         <v>7306</v>
       </c>
       <c r="B159" t="n">
-        <v>130690</v>
+        <v>161417</v>
       </c>
       <c r="C159" t="s">
         <v>1322</v>
@@ -15970,7 +15970,7 @@
         <v>7306</v>
       </c>
       <c r="B160" t="n">
-        <v>130668</v>
+        <v>130624</v>
       </c>
       <c r="C160" t="s">
         <v>1112</v>
@@ -16037,7 +16037,7 @@
         <v>7306</v>
       </c>
       <c r="B161" t="n">
-        <v>130691</v>
+        <v>161418</v>
       </c>
       <c r="C161" t="s">
         <v>1335</v>
@@ -16108,7 +16108,7 @@
         <v>7306</v>
       </c>
       <c r="B162" t="n">
-        <v>130692</v>
+        <v>161419</v>
       </c>
       <c r="C162" t="s">
         <v>1342</v>
@@ -16250,7 +16250,7 @@
         <v>7306</v>
       </c>
       <c r="B164" t="n">
-        <v>130693</v>
+        <v>161420</v>
       </c>
       <c r="C164" t="s">
         <v>1357</v>
@@ -16321,7 +16321,7 @@
         <v>7306</v>
       </c>
       <c r="B165" t="n">
-        <v>130694</v>
+        <v>161421</v>
       </c>
       <c r="C165" t="s">
         <v>1365</v>
@@ -16392,7 +16392,7 @@
         <v>7306</v>
       </c>
       <c r="B166" t="n">
-        <v>130695</v>
+        <v>161422</v>
       </c>
       <c r="C166" t="s">
         <v>1372</v>
@@ -16463,7 +16463,7 @@
         <v>7306</v>
       </c>
       <c r="B167" t="n">
-        <v>130696</v>
+        <v>161423</v>
       </c>
       <c r="C167" t="s">
         <v>1379</v>
@@ -16534,7 +16534,7 @@
         <v>7306</v>
       </c>
       <c r="B168" t="n">
-        <v>130697</v>
+        <v>161424</v>
       </c>
       <c r="C168" t="s">
         <v>1387</v>
@@ -16609,7 +16609,7 @@
         <v>7306</v>
       </c>
       <c r="B169" t="n">
-        <v>130698</v>
+        <v>161425</v>
       </c>
       <c r="C169" t="s">
         <v>1397</v>
@@ -16684,7 +16684,7 @@
         <v>7306</v>
       </c>
       <c r="B170" t="n">
-        <v>130699</v>
+        <v>161426</v>
       </c>
       <c r="C170" t="s">
         <v>1405</v>
@@ -16751,7 +16751,7 @@
         <v>7306</v>
       </c>
       <c r="B171" t="n">
-        <v>130700</v>
+        <v>161427</v>
       </c>
       <c r="C171" t="s">
         <v>1414</v>
